--- a/LTSS/Cau hoi khao sat/Cau hoi khao sat 28.06.2017.xlsx
+++ b/LTSS/Cau hoi khao sat/Cau hoi khao sat 28.06.2017.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giangnh\Documents\GitHub\LTSS\Cau hoi khao sat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trungnt/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Giang" sheetId="1" r:id="rId1"/>
+    <sheet name="LTS" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>I.</t>
   </si>
@@ -158,12 +166,272 @@
       <t>0.1</t>
     </r>
   </si>
+  <si>
+    <t>Nếu không nhận trả về ngay thì chỉ nhập số lượng thực nhận</t>
+  </si>
+  <si>
+    <t>Hàng từ xe đưa vào khu vực pending nhận hàng, sau khi kiểm tra xong, xe nâng sẽ đưa vào khu vực chứa hàng</t>
+  </si>
+  <si>
+    <t>khả năng kế hoạch và thực tế khác nhau rất cao, khi nhập đưa vào tồn kho theo số lượng thực tế. 
+Nhiều chủ hàng khi giao hàng cũng không gửi kế hoạch, tới kho mới biết hàng hoá là gì</t>
+  </si>
+  <si>
+    <t>Có 1 số chứng từ chung: Packing list, phiếu xuất kho, Lệnh giao hàng, …
+đối với CFS: tờ khai xuất khẩu, booking
+đối với kho ngoại quan: tờ khai xuất khẩu, hợp đồng và booking</t>
+  </si>
+  <si>
+    <t>tally khi nhập kho kiểm đếm tên hàng và số lượng thực tế ===&gt; gửi bộ phận chứng từ nhập dữ liệu 
+chưa có khâu kiểm tra lại sai sót của chứng từ, chỉ khi thấy sai lúc đối chiếu với khách hàng sẽ xem lại tally hoặc kiểm tồn thực tế</t>
+  </si>
+  <si>
+    <t>Tuỳ mặt hàng: có mặt hàng theo lot, có loại theo hạn sử dụng</t>
+  </si>
+  <si>
+    <t>anh chưa hiểu chỗ này lắm
+NV chứng từ chuyển cho inventory để chọn lựa lô hàng xuất, khi đã chọn xong, in tally xuất cho Xe nâng hoặc công nhân (Picker) đi pick hàng ra khu vực pending (hoặc tới máng làm hàng), tally kiểm tra và xuất hàng.</t>
+  </si>
+  <si>
+    <t>Nếu có chuyển thành sản lượng thì ghi chú là sản lượng chuyển kho nội bộ để ko tính phí cho khách hàng</t>
+  </si>
+  <si>
+    <t>Gửi khách hàng xác nhận, có xuất hay không hoặc phương án xử lý</t>
+  </si>
+  <si>
+    <t>chưa hiểu câu hỏi, in chứng từ liên quan theo form mẫu đã thoả thuận với khách hàng. Việc này có thể thống nhất 1 biểu mẫu giống như phiếu xuất kho hoặc tally xuất kho hoặc DO xuất kho …</t>
+  </si>
+  <si>
+    <t>Kiểm tra hàng tồn thực tế định kỳ</t>
+  </si>
+  <si>
+    <t>không</t>
+  </si>
+  <si>
+    <t>1 lần/2 tuần hoặc theo yêu cầu khách hàng</t>
+  </si>
+  <si>
+    <t>kế hoạch nhập xuất do khách hàng gửi, giao dịch qua email, thông thường kể từ khi nhập kế hoạch và chốt kế hoạch xuất nhập hàng, kể từ khi xe tới kho, trong vòng 30p phải bắt đầu giao nhận hàng.</t>
+  </si>
+  <si>
+    <t>có khách hàng yêu cầu</t>
+  </si>
+  <si>
+    <t>INVENTORY</t>
+  </si>
+  <si>
+    <t>NVCT</t>
+  </si>
+  <si>
+    <t>Nhập kho</t>
+  </si>
+  <si>
+    <t>TALLY</t>
+  </si>
+  <si>
+    <t>XE NÂNG</t>
+  </si>
+  <si>
+    <t>PICKER</t>
+  </si>
+  <si>
+    <t>KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>CHỨNG TỪ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sự khác nhau của Tally Sheet / Pallet No / </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gom chung lại 1 chứng từ để sử dụng vừa làm tally sheet, vừa làm palet no. NVCT chuyển lệnh nhập hàng trên PM cho NV tally nhận trên máy, kiểm đếm, cập nhật dữ liệu thực tế lên PM, sau đó in chứng từ dán lên palet. </t>
+  </si>
+  <si>
+    <t>Nội dung trên Phiếu nhập hàng cần thông tin gì?</t>
+  </si>
+  <si>
+    <t>Mã hàng, nhà cung cấp, FWD (hoặc chủ hàng thuê kho), số lượng kiện, số pallet, vị trí lưu kho</t>
+  </si>
+  <si>
+    <t>Theo số Items/Palet No./Location</t>
+  </si>
+  <si>
+    <t>Notes: Máy tính ngoài hiện trường để nhận kế hoạch, phản hồi kế hoạch vào pm và in phiếu cho tally</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>chuyển plan nhập kho cho tally, tally nhận trên hệ thống, nhập hàng và phản hồi thông tin chính thức. In palet No dán lên palet để xe nâng đưa vào vị trí location</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gửi chứng từ nhập kho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>B2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Nhập mã hàng vào PM, nhập dữ liệu vào tally sheet (Cửa nhập hàng/items/pallet No/Location dự kiến)</t>
+    </r>
+  </si>
+  <si>
+    <t>B3: Hàng nhập kho</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>B4: Nhập kho</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+xếp palet ==&gt; đánh số tt palet/location trên phiếu plt no
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">B4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>Xếp hàng vào vị trí lưu trữ, xác nhận trên chứng từ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>B6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> xác nhận vị trí lưu kho</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t>B5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Courier"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lưu Kho</t>
+    </r>
+  </si>
+  <si>
+    <t>Chứng từ:
+- CFS: Tờ khai/Booking
+- KNQ: HĐKNQ/TKKNQ
+- KNĐ: P/L, S/O</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +460,45 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +511,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,11 +526,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +583,49 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -259,6 +641,475 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>346364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10039</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>352940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2537641" y="1425613"/>
+          <a:ext cx="820580" cy="6576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025" cmpd="sng">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>567267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14111</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>573843</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2541411" y="5151967"/>
+          <a:ext cx="4279900" cy="6576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025" cmpd="sng">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>11044</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>320261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1115391</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>320261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996609" y="1424609"/>
+          <a:ext cx="1932608" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1089623</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1111711</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7918174" y="1409098"/>
+          <a:ext cx="22088" cy="2658583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025" cmpd="sng">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>569107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>575683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9093200" y="5153807"/>
+          <a:ext cx="825600" cy="6576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025" cmpd="sng">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>557049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>563625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11963400" y="5141749"/>
+          <a:ext cx="825600" cy="6576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025" cmpd="sng">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>712439</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>712439</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>247805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13520854" y="6365488"/>
+          <a:ext cx="0" cy="480122"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>223406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>727926</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>232317</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12018536" y="6821211"/>
+          <a:ext cx="1517805" cy="8911"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025" cmpd="sng">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1285488</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>216829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4713</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>232317</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4661829" y="6814634"/>
+          <a:ext cx="5286055" cy="15488"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1285488</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1300976</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>232317</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4661829" y="3980367"/>
+          <a:ext cx="15488" cy="2849755"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="73025" cmpd="sng">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,46 +1409,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="83" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="92.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="92.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="74.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,55 +1459,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>6</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -665,47 +1534,62 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -714,40 +1598,1059 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="18"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="18"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="8"/>
+    </row>
+    <row r="47" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18"/>
+      <c r="B48" s="8"/>
+    </row>
+    <row r="49" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18"/>
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="18"/>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="18"/>
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="18"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18"/>
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18"/>
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="18"/>
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18"/>
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18"/>
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18"/>
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="18"/>
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="18"/>
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="18"/>
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="18"/>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="18"/>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18"/>
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18"/>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18"/>
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18"/>
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18"/>
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18"/>
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18"/>
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="18"/>
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18"/>
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="18"/>
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18"/>
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18"/>
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="18"/>
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18"/>
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18"/>
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18"/>
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="18"/>
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="18"/>
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18"/>
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="18"/>
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="18"/>
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18"/>
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18"/>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18"/>
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="18"/>
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="18"/>
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="18"/>
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="18"/>
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="18"/>
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="18"/>
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="18"/>
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="18"/>
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="18"/>
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="18"/>
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="18"/>
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="18"/>
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="18"/>
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="18"/>
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="18"/>
+      <c r="B115" s="8"/>
+    </row>
+    <row r="116" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="18"/>
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="18"/>
+      <c r="B117" s="8"/>
+    </row>
+    <row r="118" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="18"/>
+      <c r="B118" s="8"/>
+    </row>
+    <row r="119" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="18"/>
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="18"/>
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="18"/>
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="18"/>
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="18"/>
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="18"/>
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="18"/>
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="18"/>
+      <c r="B126" s="8"/>
+    </row>
+    <row r="127" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="18"/>
+      <c r="B127" s="8"/>
+    </row>
+    <row r="128" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="18"/>
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="18"/>
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="18"/>
+      <c r="B130" s="8"/>
+    </row>
+    <row r="131" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="18"/>
+      <c r="B131" s="8"/>
+    </row>
+    <row r="132" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="18"/>
+      <c r="B132" s="8"/>
+    </row>
+    <row r="133" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="18"/>
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="18"/>
+      <c r="B134" s="8"/>
+    </row>
+    <row r="135" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="18"/>
+      <c r="B135" s="8"/>
+    </row>
+    <row r="136" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="18"/>
+      <c r="B136" s="8"/>
+    </row>
+    <row r="137" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="18"/>
+      <c r="B137" s="8"/>
+    </row>
+    <row r="138" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="18"/>
+      <c r="B138" s="8"/>
+    </row>
+    <row r="139" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="18"/>
+      <c r="B139" s="8"/>
+    </row>
+    <row r="140" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="18"/>
+      <c r="B140" s="8"/>
+    </row>
+    <row r="141" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="18"/>
+      <c r="B141" s="8"/>
+    </row>
+    <row r="142" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="18"/>
+      <c r="B142" s="8"/>
+    </row>
+    <row r="143" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="18"/>
+      <c r="B143" s="8"/>
+    </row>
+    <row r="144" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="18"/>
+      <c r="B144" s="8"/>
+    </row>
+    <row r="145" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="18"/>
+      <c r="B145" s="8"/>
+    </row>
+    <row r="146" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="18"/>
+      <c r="B146" s="8"/>
+    </row>
+    <row r="147" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="18"/>
+      <c r="B147" s="8"/>
+    </row>
+    <row r="148" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="18"/>
+      <c r="B148" s="8"/>
+    </row>
+    <row r="149" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="18"/>
+      <c r="B149" s="8"/>
+    </row>
+    <row r="150" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="18"/>
+      <c r="B150" s="8"/>
+    </row>
+    <row r="151" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="18"/>
+      <c r="B151" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:M29"/>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="10"/>
+    <col min="5" max="5" width="34.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="10"/>
+    <col min="7" max="7" width="30" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="10"/>
+    <col min="9" max="9" width="26.83203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="10"/>
+    <col min="11" max="11" width="19" style="10" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="10"/>
+    <col min="13" max="13" width="18.33203125" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" customFormat="1" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" customFormat="1" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>